--- a/xlsx/builtin/饮食健康.xlsx
+++ b/xlsx/builtin/饮食健康.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="DLC" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,6 @@
     <t>饮食健康</t>
   </si>
   <si>
-    <t>yinshijiankang01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/9j/4QAYRXhpZgAASUkqAAgAAAAAAAAAAAAAAP/sABFEdWNreQABAAQAAAA8AAD/4QN6aHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wLwA8P3hwYWNrZXQgYmVnaW49Iu+7vyIgaWQ9Ilc1TTBNcENlaGlIenJlU3pOVGN6a2M5ZCI/PiA8eDp4bXBtZXRhIHhtbG5zOng9ImFkb2JlOm5zOm1ldGEvIiB4OnhtcHRrPSJBZG9iZSBYTVAgQ29yZSA1LjUtYzAxNCA3OS4xNTE0ODEsIDIwMTMvMDMvMTMtMTI6MDk6MTUgICAgICAgICI+IDxyZGY6UkRGIHhtbG5zOnJkZj0iaHR0cDovL3d3dy53My5vcmcvMTk5OS8wMi8yMi1yZGYtc3ludGF4LW5zIyI+IDxyZGY6RGVzY3JpcHRpb24gcmRmOmFib3V0PSIiIHhtbG5zOnhtcE1NPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvbW0vIiB4bWxuczpzdFJlZj0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wL3NUeXBlL1Jlc291cmNlUmVmIyIgeG1sbnM6eG1wPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvIiB4bXBNTTpPcmlnaW5hbERvY3VtZW50SUQ9InhtcC5kaWQ6NWRjOWE1ZDEtNDc0My1iYjQyLTk2NGItMDY2ZTc1YjliYjBmIiB4bXBNTTpEb2N1bWVudElEPSJ4bXAuZGlkOkMwOTNCRkZCNERBRjExRTg5Q0U0OTZENzBGNkMwNTVGIiB4bXBNTTpJbnN0YW5jZUlEPSJ4bXAuaWlkOkMwOTNCRkZBNERBRjExRTg5Q0U0OTZENzBGNkMwNTVGIiB4bXA6Q3JlYXRvclRvb2w9IkFkb2JlIFBob3Rvc2hvcCBDQyAoV2luZG93cykiPiA8eG1wTU06RGVyaXZlZEZyb20gc3RSZWY6aW5zdGFuY2VJRD0ieG1wLmlpZDpiZWIzNDU5NS0yYTEwLWQ2NGItYmMzMy0wMmRiNTI2ZThhODEiIHN0UmVmOmRvY3VtZW50SUQ9InhtcC5kaWQ6NWRjOWE1ZDEtNDc0My1iYjQyLTk2NGItMDY2ZTc1YjliYjBmIi8+IDwvcmRmOkRlc2NyaXB0aW9uPiA8L3JkZjpSREY+IDwveDp4bXBtZXRhPiA8P3hwYWNrZXQgZW5kPSJyIj8+/+4ADkFkb2JlAGTAAAAAAf/bAIQABgQEBAUEBgUFBgkGBQYJCwgGBggLDAoKCwoKDBAMDAwMDAwQDA4PEA8ODBMTFBQTExwbGxscHx8fHx8fHx8fHwEHBwcNDA0YEBAYGhURFRofHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8fHx8f/8AAEQgA8AG4AwERAAIRAQMRAf/EAKoAAAIDAQEBAQAAAAAAAAAAAAMEAgUGAQcACAEAAgMBAQEBAAAAAAAAAAAAAgMAAQQFBgcIEAACAQMDAgQEAwYFAwMEAwABAgMAEQQhEgUxBkFRIhNhcTIHgZEUobFCUnIjwdFiMxXhkiSCosLwskMWUzQXEQACAgEDAgQEBAUEAgMAAAAAARECAyESBDEFQVEiE2FxMgaBsUIUkaHB0SPw4fFiUhVygjP/2gAMAwEAAhEDEQA/APUoxeNSfIV8ZZrZFhRIBgmq0CwbEUQDYNnUdetEkA2AeQUaqA2LSy01IU2KvIKNIWwDPrRpC2yAm2+NXtB3BVyAfGhdS1YIJr/KhaLk77gqQSTl79KsknCKhUgz+dQqSNr1CI7s0qBndlSQ0fGHXWpIaqDaL4UW4ZANotKNWDSAvHTFYbVC7x05MagLJc05DqkdlMTHo6Fo5GJhEWpIUh41N70LYLYxGPClsXYajFJsLY1EppVkKY3Gug86S0ANRg0pogyi62pbRA6KbiltFhVWgaJBLbQwSD7aKplQcI0qgWRIqmUR21AIIFfCogGiBU0QLBsKgBEirTAaBlauQIIMPOikqAZqwGgZFWgIBPaikjAuKJAQCajQLAEa60a6gPoCYGjQJr48ge2tj4CuVsPR+4iJm0q9oLuCaYVe0B2BPKLUxVAbF5ZbUaqA2KS5KgUxUFO4nLmjzpyxiXcVfMv0o1jB3yQfICf7jhP9J1b8hR1xs6fG7PnzapRXzYBs6Lw3N8elH7TOrT7Z01sQXPjB1uKjwg5Ptlr6bDkGWr/S1/h4/lS7Y4ONye25sT1QykpNKdTFtfiED/hVQHXFd/pJXv1oRbq11PiKgJ9bQVQSJbaqRiJqoqmNqiYjqpGpEWjGtRMOALRCmphpAJEFMqxiF5Ep1WMQsyWNPqxlSIWmIcjuy9GMTJqpqFh0UULBYxGtCwGMxroKWxbG4V1pVhbHIkpTBgajjNLaJAyiUtogdVvQNFkwtA0WT20EEObaqCHCpoGU0RZTVAMgymoDBArVIGCJSpIDRAqKsCAZXyqFOpAgVYEA2WiQEA3UUQLQJharTFtAmA/GjBaAsKJANAXFGgWCYC9GuoDQFhRgtFt+psg18BWPYdP3CDZpt1vV7AXmAtnkaXo1jB94E3JCjWMnui0/Ii3WmVxC3kK3I5Ia6606uIVa5Xy8jc6GnrELmQpzlx4RtN8lh9XggP8A8qZTEe+7D2CKrLkWrAbMh092xKnq1aK8ds9ZsqtCwxuDyZoRKG0PhT68MzZOQquBLOw8jFazrp50rJxnUdjdboR/UuGuCQw8aVsLvxwqZmSD/uMD/UarYjP+xx/+KItPI2rMSfmTVbF5DVx6rwJx5+XC145WFvC9x+2heKr6mbN27FkWtUWeN3QN9smMKh6Mnh+FZsnF8jzvN+2U1uxvXyLyGaKeMSxOHQ9GFYrqDyWXBfHbbdQw6jXWgbIkERaBjahQtC2ORFkF6tBAXW1MTDQu6i9NqwkLyAU6o1CrCn1DRGwpqG1PgutEMCqutQsLGmtRlDKKL0LBY3EgNqW2LY3FGaWxbQ5FHQMGBqJelAyxlEpbRQZY9aBouAixihaLglsFA0WcKCgaJBwppQsqCBU0DKggVFCwYIFapgwQZdKgLRAr41JA2g2UeFRAtEGWrAgGymikFoEwFWmA0CdaJANAXHjTExbQFwb0aAYF1NGgGgLCjQIJ6NANHffG0a+FLge7ApMiw60SoA7CORl2vrTa0AdxB8qR22pqacsY3BhvmvtopYJ8hF0YmRvIaL/1ptcZ7TgfaMpPM/wQs+QzdFUfh/nT64T0mL7c4VF9CAl2BDGNSAb9Lfupvssu321w7PSsMJHPDNP619vcdB1FOx0q2dj2XjqaPtzkMVnfjJwFk19snx+FdDFtehzebx7L/Ig0XJLx/IPjsf7RPj4UW2BVuM8lNxZ5C4ufFJHoSQbGhdEzLVWxuTz/AD8d8bJaNvA2+Yrm5McWO9Vq1UzsaM0pVRfabVFjli9Eh4YzKn0m/jWj2oRn3qQuDxH60sqnawofYkXl5GwruQwZsOUpKPkfOs+TFtY/FdZK6BOC5dsHNVXP/jyEB18vjWPk4d9Z8Thd57estG49SN4qg9K4p4PZAQIbULGKpMChDSOEDrRIJIA460aLF31ptQ6iz61oqGmLOBem1GIhTEMTJKKMYmGRBUkIYjTWqkoYRKFsFjkSjwoGA0NxIKFgscjTpQlbRuOMWoIKSGY0v4UMBQGVBehaJBMJbShaLgkV0tS2izhUEdKBohArpS2ioIlKXBUAyooSoIFaAFohtJqgYIFahTQMrVyBANhUkDaDZR0qSA0CZRTEA0BYUaAaAsKIW0BfpTELaAvbpRoBoA41piFtAWAo0CVZyPSNfCmbAHcXlywPGjVAHcRkmeWQIh1PUnoB506lB3F498+RUopbBT5CraGG+w6l/F/j8vKtNMcn17s3ZMfEx/8AfxY/x/A5mRZ3Uop866OLiHQzcqtNENydszKPS1z4XrT7ECq85MngfooicXMjU+BJ/wA6tVBzb36qg+b7SCR/qsBt6dSnl8qXk43ihnF7hPpuZWVp45llViuRERYedvj51nlo6mxNadGGyea/VOJW0l6P8xTbZZAphVdBvi+VzTkqmMGllbQRrdiaB8jb1E8nFjVZtCqE53NhyFVmGzIS6uh638jUy2rZShHGx7Vo/Sxzho4MfhWzJReSRyqXo8dYrJkzO1rqqLvjPbycUPYa9DTq6nP5HptoI5mVHxvIRlD1+ofA0FoQ/HjeXHqVnc3IRZBBVhp0FJzw0aeHhdFqZouW+k1jgLPST0vic2KXjcaR5FDFACCQDcaVwc+Kyu9D51y+LeuVpVfUsVIIuDcVmaM21p6hRQDIIPRopisjeF6YkCKyP4U2qLTF2Yk0+oxC8hFqZUOQaN6qYg6sOnWi3DUHjqbhgzGKGSxiMGqBH4k0FCCNxJUBHYlFBBBuNRUJAwiChggZU8qpohILpQNFnbXNA0Q4U8qW0XBArrS2ioIlaWyQDK0sqCDKKBlQDZaApogRVFNEGWpIEAmWpIEAmH50aAaBONaJC2gMgo0LaANRoBoA1qahTQB+tMQtgGtrRpAMA9NQDRl/f9I18K1bDFuF5sj40aqVa0Ck+R7a+0PrfWT4DwFaMdD6v9mdkWPF+4uvVfp8EXfa3FpnSxs0VlhYmSQn6r9Bb4V1uNg8T0/Pz+3OvU3640MaDb4dR5Vvg83vbYtlyRqht1teo0Ox1bZ59yGRJ+rklW+wNqfD4Vky2hnpcNFtSL/gOYdoDDKdwCgg/OipaUc3m8aHKM73F+nOSxT6j5Vm5EHS4barqVGJwnI8plhMFLsP9920VB/MTWW2RVUsVz+dj49d9n+Hia7jcfD4FXWGQS50ilXyG9Nv9KiudlyPI/gfPe694vytOlAGHwuByz7p0mWZvqmi8T5m/Wr961F8BnE77mxU29aovYuE4ODEjxZpJZ0xfVtJC6nzAtertzMl1EBZO/Zm3tUNnQ0UQbk0Kx8e42KtttmT4eGlbeBkeqsx/beRbKtlnNzD8nyL5ua7prc6fAU3Jbc9D2eDCqVg5Hx2RIoeRG2/zHRatY7Mp3r5l3x/bfGZKC2XaQ9VApq468zBm5VqP6dBLmeAnwF3q/uR/wAwpWTjbeg7jZ65PAqsXmuSwZA+POwt1Qm6n5g1jvx636ovk9sw5VFq/ibft7uzH5P+xIBDmAax+DfFa4/J4bpquh4ruXab8fVa0Lp3WxrKkcZsTnfrTKoCRN31609IpMEzG9GhtWQZN1MTGJScWA3o9w2tBhIjVbhyqMIlqqQ4GI1q5IMxLrUBH4gahQ5EtCDA7EtQkDUaCoSBlVqoZYZVsaqCEgtC0Q6VpbRZEiltEIFdfhSrIhArSrFkCtLZUA2GtLZUECKBlNA2B8qAqAZGlQqAbVELaAuKNANAXFEgGgD0xCmheTpTELYu9NqKsAfpTELYBjTUKYBqYgLCHPwcUODxstY/YzmIVguit5n8KnGtf3Gm5qHzcVFSYhmVs2jMpEdi24jQhdTY10FHmB2ngX5HIpSPqf8AIVwIpM3LVTqztqa6GDHNj9AKtcOKF4I9O4mDH4/ECLpfUn412aVSPMci1slgOd3BjQ6bxfyom0Hi4VrFQ/OjIWS7hBYgX6nytS96ZuXE2wZ3NZyDYkg9ay5+h0sSI4OTLEbq1r1nx3gmbGrB4eG5blMqMRxssUp//sOLJt8TfxrLm5FVL8TncrueHj06+peBr4MbD4XD/R4rBmJPvynQsT51y75XdnzzuPcbcnJuYonA5kk5f3IneQXEbLu2g/Lp+NR5qpQc+2pf8bxMHGQBCQ00hHvSeHyXyArHfI7sKtYQOCLBMuTNPG+Qs05x8THiH9wugG9ix+lfV18a3VxOyUFpQJ5PHPO3KcE0u2F8dWhB1eKU22K1vH/Cj3e25NPDz+zkVzG8fjY/D5Lxcsh96LX27fWfP5V1cGSj1PoVcvv408b6huY7kORFshjEcZ/dWjJlUQhnH4Sq5bkpIuUlhk3q5BHiKz1u0b74qtQWGR3RNNjmOQAgi1P97QzV4da2lFDJKGY/GszRpYJMiWGVZomKSRm6MOoIobUVtGZM+JXq6voz0rgOeXlePEpsMiP0zL/q8/xrg8jj7LHzjufCfHyOv6fAbd9KVVHLYq76605IpHYkL1e4fjqNJji2tBvNdKE/aWrVjQqnVQXopLSDqgq0woCKmtFILQxGtFIDQ7CLipJByKqKY7EKIocjFQgwq6VCBQtVBCYoGiHxFAyHCtKsWiJUUqxIBMKU0WQYUhlkGFLZQNhaltkBlTQsqAZqgIBMBVgtAWH5UaFtAJKNC2heSm1FWFpDTELYvIdaahNhZ21NNSFsXdqakKYFno0Cyac525JL+h5T1JEwJ9N1DLpbSs/s5Et1TdlvR6XK77idx8a/EwcfixonV0AFmVToOnga09uwX37rHs/trjJ5d66IzvZ8ZkzVYC4Ua16fi19R7fn3/wAZsM9pxEQoN7aWrpNHHwxOpj8uLIMp3ghiaz3TZ28bqloDjgdQWY2FAqwFa/gDly0AKqCxpGTJ4EVfEUbIdFJ2MPwrNBLs2HYHKf8AMYE+CZCuZxiF4l8WhLX/ADBrm8zA09x88+4eJty7/C35jGG5ys92FtyLZo76rIW2qW/fSGorJ5k2UGPDi4yxxgbmsZJOrE+ZNc21nZlooObylIaR2skYO0fLxrThrIaMfgd19yRPkPi5jQ72AUKFNvj6gbG2lxXUr6UNTktnnkx8fGylZt2SQ2XISWZpBqXJPnWb67ORF3JRd787lS4ySuE9uQiKA7Rv09TG/wAa18TGei+3bXeR6+lGeV5pscOb7R410HU91S8gtfGhgcmTFiKuC5OBPG9xU2gMA5s1qGBVi27T5Q4XLohP9nJ/tOPifpP51k5eHdX5Hnu98X3MUrrXU38kgFcdI+fOwup3tRgrUsoEAApNmdDCg+lCakyNrHSmIKTt6IuQsZFWEmHUC1WmEwyeFELYzC9EDI5E16IpscifprVkHYjcVRQ0hqEDLUIS8KEs7S2UiPhSrBETSbEBt50qxZBgKSywZBpTKIMKXYsEwoWUQcVRUAGqxbBP40aFsWfp+NMQti8hGtMqKsKuetOQqwpI3Wm1E2F3bxpqQpi7tTUhbF3ajSAZetwHGmb9QmFCXcbpJGFwb9TrpXNXIstJZ1K4lbqjyT7iQZGN3dKjADHaONsbb9JQr/Db43Fel7c08XxPe/bzSx6Fr2Tn42Dl7spgkbra51FdPj3VXqei5mK2TH6UaTM7txvcKY0HuqDYOdAfkK3e8n0MWLt9o9Tgqp+ZVphNJAokAIQdevwpVspspxYUSJSZeTkEKI1Rflb86U8ln00HVx1oW3G9rnMhLnJCt/IBeqWGerMPI7h7biBDmO38rjtZDujvo1IyYnUfxuZTL8wHbfIrxHNJyEaDeFaOS38UbfUprFnTtWDL3jty5GKF1NZm5nGQFM7FAMGeQ4lX+YefxFc1VtG0+ZZsNsdmreBcS8mjQhY+ltax+3qIkyncM7mAop+r91bMFQ0yj4vCkKG4+pr1ovcKTSZHHGbipod9kVDs/qPS1Ipf1AIwveePkfqOO4mFTI+JCHyXH0h5Og/7a6vFSVXbzPYfb3GsqtpdSK/qFwUgVPp66+NbLZausHrceCyciTpMh9SEfupY2CUayN0BPlVlSNJjzlD6dLamiVW0A2V88bIx3CxpTKaAB2jdZFNmRgw/DWqakyZse6rr5o9KgzEyMaKYHSRQ351xLUhwfJuZT28rr5DONqaXcDC5LSK+0VlZ1KMJ8Kg5HL60SZcnbUaYUk0IowpDoahchVa1EgWwsctGKkbjm6a1ZJG4ZPjVkksIHqBocjaoWHVqgJO5oWQ6SKWyz6/jS2XJA9KRYhA0uxZFutZ7FogwpTLIHrS2WCktQggm61CAX6mrQtgJDpTELYtIdTRoVYVkItTaoVYUkYdKdVCrCkra02qEWFXfrTqoUxaR6bVC2AdrUxIBm+mj38ZJCmsjp6B5ka6VwVpeTr0seRd4ScRy8WO8eUEzMBpFeORGDuDb0dNLEeNek4W7HK8Geo7De+O0NSmUseOyKvhfUD9tdCtz32G8osMCPkMiQR44YsdLqP8AGteN3ehM16VU2NhxXZsEaiXLJeXxHhWzHhS6nC5PdG9K6IBz4xMVPYhQBj1PlVXhIPiO19Wyo4nlXwcxWZiIifUKzVyxbU2cnjrJXTqbWf8ATctxrBSCHH7a1WW5HBorYbo82z4Hw8l43GqG34VyslIcHqMd1kqmi37WzsbKgyeGYKvv/wBzHDeEg+oC/wDNWPPR/UeI+4+3ur91DSTZ3H/28gl4gfSx+q3xFZnSttUeNejITOMt72BHQVEoLTGcWFIiIwt2IFgKBzYNalxBDFF7k+WdkECbwpOga3U1UapI04Me66r5mOxeMz+ZyZpoip3MWLMbH4XruYcDaPp9L4+LirWBn/8AUOVR7MqlB/EDpT1xWX/7LGyS8DgyH2GyP0+SdAklipPzonhQL5l1rE1Es3A5jh2syj2z9LqNyH5Gge+nyHY8uLMIS81lNGUYgf8ApFV77GftqplRkv7pLHrSm5DdRCVADVozZEa/tmcy8REDqY2aM/gdK5nJrFz5X9y4tnJ+aNJhjpWK5zsBaxD0isp06sJtFqgxM5bWrTDPrUSYRzcAaMkhUcWogpOtMBRpAWsfLkC/WmQIdxqKbprUJuHYJwba1A0yyxpulRjasfilqBjaPUAZMPQssnfSlso+uKVYs4SL0llkCaTYsietJZaImlMIg1LZAZtQkBP1qAsC9WgWLSmmIVYVlOtMQmwnM1OQqwnI1OqJsJyNTqoSxR21NNqKYtI+tNqKYuz6mmIXY9C3y7ksPSB6SPlXAjQ6fiYnv7h87Kwk5QmCJY5LSgoEmk6gWf6m/p/GuvwMlavZrr/A9R2DLuvscmU4vAbMyFjF7Hr8q9Bgxbnqe8zZfaroejcRx+DgYyrGo3dWbxvXWokkeY5PItksMT5ICkjQVbsKrSWYzuGUNmmx3C2h8azZGd3hqKmeyG2MQTr41jv1OpUa4/uSXBBANxTceeDPm4lb9Ss5bmpM6YyuAptS8l9zG4sax1hFXJHnzFJMJ/ZljYOk17bWU3BqlHiI5fGeemzzNOvcmdNtflIopZlQIXhul7fxbddayWwV12nmMv2neJrZBB3J25CVlyhNAL2AC3F/mtL/AG9/DU4vI7Hmwv1KfiW47r4mONXxcV3Ntw3/ANu5Hn9TUtca866G3h/bmbJrb01KPm+U5bn4mgmzY+PgH0wxRMQ/wdr3tWzBhrT5nbwfb9ePZWq9zE8Hk+R4ayM1t2iyqdyP8j/hWvHd16HcdKZVFi2g71zbWYh/iab+6Yu3baeBX52eMqZpg202v+PkKXkvuehpxYttYLHh+59q/o+Q/vYj+n1alaLHmnSxn5PA/VT6it7g4xMXI3REPjSeqJx5eVKyUh6dB3Gzb669UUT9aWMYtIwvrRpGe5pO0GBw5kB+mW9vmK5/M+pHzn7txxkpY1eK1gK5tkeZw2gtIXBrPY6OPJIxQIcmcGtEGmcYWq0w5AyMBTUVJAy2FMSKdoFMjNC6A06lTNkyHIc25603aJ9wscfJvbWgaG1tJYQTa/OhZooy0xpqFsdUs4pPjQhjUUl+tVJTGFeoCSElLZZ0vS7EOb6Sy0cLUi3Us5elWDREkUosiTpS2WgbdKojBP0qAsA5q0AxaXzpqFWFJqZVCrCUzWp1UIYlI2tPQqwlK9OqhDFJX8aahVhWR9aahbFnemJC2elqCklrH/61rgtQzqV6mR+5XcHFZGJi4MeRFLlxSMZIkNzGdttbaV1u30ybtzWh6v7cx2WVt+RneCyYMZGdmAkYekjwr0eC8I9Tyq2v0LIc9NfQhkHU9K0LKZv2qCDnI5gVvtt9VF7kgritFDy2fG73FJy5EdHj49vUz2ROWJ1rL1Nm6BVi7NpcnwFEkDvGMbjnZg0x08EH+NXEh1rOrNZxHbK5OM08xYRgehEFyfwrRTB4sx8jn7Lbaor+S4cQo8sEnuRI2xwQVZT4XBoMmGOhqwcnc9rKLJRGBDAWGp/DpSaaD81K2Wo+kR9tCDu0F6L2y046j2HiTZB9qJN0h8NB++i2whGTIq6sXlZbNG6hl6NGdVNqGYI8e7qI/ocS5CSPCT9Kt6k/P6hV6MDbenTWoKeKaBtrdfAjUH5GqtSB1MqsD9wjWhgcrDI5J2x/YkO6LwU+HyotziBexTKK6aQa26UMA2FJX60aMuRl92W5LZV/p9P51i5y6HhPu2Pbr8zYwyCuZY8TjuWEEtIsjZS48j7hSTZSxK4t1qhiYN2HjRoLcLTSAU2qKtcrsrMVAda00pJnyZIKiXO3v1rUqwZXkkLBkGraKktsTIJApV0Nx2kt8eU6Upm2pbY0tKZpqWkEmgoZCkcjkFEgWw6yVTBCCTwpbIdD6UqxZ33NL0mwR3fcUmwSZzdrSmEjm7SlMI4TSyEG6VCApKhTASHyoqgMWlOlNqKsJTHU02omwlMwptRNhCZutaEJsJTNrTqiLCcr01IUxR2606qFMWke9GgGell39xg1wbDb87VwXqdWp5b9w+HwcPk48/GkCy5jn3sbx3dd6/A+Nd/t2W1qw+iPXdj5FraeRV48vpFbloeur0Gp5DZbNdSPyNXuZdUL+8bEX/wvRJsJi0h3XNtvxverkm4UkKjQamrB3Fjx/FzEx7l/vT22L5KfH8aZsfTzCV0lufgb2PtzFweN3OAX27nf41urjVUcn99bJkhdCv7f5oQzPj/wFj7d6ql1MGrmcXclbxGe51ibCd7Dc1rtV5FoL4Le+Dz2VS7EDyP7K566ndu9DW8LxXucKuYD6lYhgfECtuKnpObyeRGXYXeL/wALkY6BlRiNNdDembKnOyvLVksrgOGyIrRqI5ANCtU8dWVTmZavXoZPl+JfEG4WaPoDWbLijodjj8pXKUSRmNomOo/27+dLpbSGOyKNUVsmQp0GlVBFkANL19QBq4JvBvNYdb1IAdxeSbXrVwZsljX9n4/t8W2QfqmfT5LWPnfpR86+7M8utTRI9q5cHkKWGosggfGgdTTTJA1Hl2HWlOhqplJnNFtTVLGO94C+evnTFjJ7wjlcgADrTqYxdsxRZuczE61rpSDNa7YmkzFutNgvcP48uoFAytxd4DXtSMhpw9S7xr2FIbOjRFtjEiktj0WMDGpXUscjcimQLbDrLQMqSYlFLZUkhJSbEklvpNg0yQek2CO7jalMJHd1Aw0cJ0pYSIk6VCgTmoUxeQi1NQDFpWpiEsSlb8qZUXYRnan0QiwhMxvT6oTYRmfU06oiwlK9NqhVhWRqchbFnfWjQDPR86QxEybrWUEVwMep1Yhnm33Il4+Z8bME6jOiIQwX9RjY6m3wNd7ttbKV+k9J2HI1eI0M9jZA08q6EHtqsaLEqbGpAyQLSWWigpsVeVidSauAJDY0IZ9zdB4VA6qTV9sFZuS9+c6oLgfLpWjA5tLEc6a44XiaDuflYxxroh9TemwrTmvFTBwON65MAZ3R9wNta56u0em2pqGWU/NyZGB7MjaqPxNafemuplpxlW0oruJxf1M8otcLE7fjbSk46yFnvCRtODBh7ZkDaKCxrfjUVORynuzmVXN2M1msB0rE82p2PaQSbueU4qxxAxTJoZFJO8fG/Sh92xmXDSs29UxSfuHIniMcxDCi95sNYa1cooMme7EqaBB2sVc+SwcnzpqRleSBdsm56/tq4K946ci69akAPMQj3yyrGurObL+NXBlzZo1PUcDFGLg4+MBb20G7+o6muRzMm658t79yfdzv4DIFqxnHqyQawqQPVj73WHSq2h7iDZD+FEqh7xWTIbz1piqXuEp5SabVC7WEJGu1NRSsdiUlhVsLcWmNEDalWsNpqX2DGBast7HRw1RdY66Cs7sbKIssYDSgWo1D6G1aa10BbDK5qMW2EWSw60uwLZMSik2KkIsl6VYkk1k1pFg0yYkBpTGJkhJS7BpktxpTDPtxoYLkizGqIwTUSRQCRqYgGLTEUyoqwlMadVCrCE5NPqIsIzmnVQiwhO2tOqhNhOZqbUUxSRjrTUAxZjRoW2ejdycfmvx0k+HG08kcRdIU+p229BXB4eWu/bY7LUan5syZeb/XPkctjzwzSudZ0ZNR/CNwHSvcqtNsUaZ6rtmSu3QuMPKBA1pDqemxWLWOa4oINKZ9IR1NWiMVkYBtKKAB7Gb+3Q2Q/Gi3wZfZhaRHKzDoLdQeutVS8BZFucQLZGXNLfe2751drtjaUrXohN5LG48KoZIs8hBNQpstuAzFgZ3PjYW/Gn4XBmz03I0/OZscHDGCE2EhuK05rxUwcbE3klmFebrXPR2bMWeTX51IEXsAklNyL0UC3YUnlIo0Jtcqsp9TrTkjnZsuoASaUUCveItKb1Nou2U0PZ+H73KRSOPSnq1+FZ+Rl2VObz+Xsxtno27UnxNcOzlyfMMuV3u7PxObvOqgFWOmqG1sCZqtB7gMjfhTEGmJyyAGjSLdxSWUeNNSA3SAUbmvRkTGYgL0LLTLHFOoFJsaMfUvsQ9Ky3OniZc43QVmszXRlpjgWFaMNA5GL1odYAbOh7CltC3Y6JKRYCSfuaUqxJJrJSbFyFWSk2DTCJJSmMTCBqWxiZMPQMNM7uoSzhaokWDdtKJIFi7t40aQtsVlam1QtiUza02qFWEZ2p1UJsIzEXp6EWYjKdTTqibCUp1tTUKYpKdaYhbANfWjAPQ5fuT2lhMI87lMbFYWUq8gLA/ELeuEu1Z7/TWzO28qXU8G+5/3Eye5u5Z4ocr3uDxZT/xq20sFCl/P1da9l2ztywYlpF31Ol2rOndop8DM6X6U69D2XHySX+LkbgKQ6nQqxp39FDA1C+65tVlNFjjjagHjQsbRDsEnpKnz6UMDSLBT/iKKAxaVT1FSCSJSHU0UAthYsh1sL6L0qEHMzlJZoURjcKKK12yq0VXoVby/GgglrC7zeINrUaRnuxR8jqOlXAi1oASzXB1okjNkywVmTOA9qekcu95YD3RVwBvCY6e7Mq+F6G2grJkg9I7P4ww47Zbixf0oPgK4nLyy4PId85rjYi8kexrOkeTtYgJNaKCkyZkodo6rINJpUSGJisr+NMSC3CM8v5UxIjYm8lMSBTOwNrUYaY3HahZaY7ht/cFKt0NGLqaPD8Kx3OpjLrE8L1mfU1VZZxEAV0MS0LdiTPamMW7EDJrSbANnfc1pNkDJ0S0mxJCrKLUmxchUkFIsGmGVxS2NTCrIKWMTJh/KgYaZIPUCkiXqEkgzUUAyAkfSjSAbFJHptULsxOZ6dVCWxGVhTaoTZiUx606qFMSlNNQmzEpPGm1FMVkpqFsC+otRAM8dlhVx/eQrIet+pr0SvD01N9cTEWgWMm9wf4TT98mjBa1LpocwcjoPLrSctT3HC5CspL3EyioGtZbVO1isWceYCtLg0phIpU3C/SqgKSygkDMLdKWx1B5TpVDQErEVaLQJmo4KgUlIDafjVwCwZapBUkGyGCkbjY9R51cFOwvNmOUVCfStyPxq9opsSknNqJIVa4u03j+dXBlvcDJIdhY9PCiqjm5smpWu5uaekZLWIGWrgW7mo7T4GfNmVmG1OrN5Cudy86rojk8/nVxVbZ6akccMSxRiyILCuLq3J4bNmd7Oz8QMuvzo0Y2zixkipIdUcYEGrGpA3U1BiF5Rob0VQoEZQCaaiNisgA1o0AciGtRlyOxeFAwqsfwk9YpV3oaMK1NJgroKxXZ1cbLrGXpS8VZsaUx5dBXRqoRTZF5KtgNgmek2AbI+6b0mwMkxKaTYkhEkNJsEmGSQUpoNMOklKaGJhVagaGSFV70DQxMlvFVtLk5vFXBcg3cUaQLYu7mjSAbFpXptUKsxOZ/Cm1QpsSlbrTqoVZiUp1pqQmwnMfDwpqQpish/KmJC2LPrTEhbYJ7eNWCzB9yds5O53juSPpAro8XlJaM7bx2Mp7bq7Q5K2I6Ei1dOZ1RFVik0MmLJvXVDTa2VlB0eJntjZYYOcGAsdaRkxweq4vLVi1hygRWd1OnXKmNRTFjprQ7RnuIssPKKsL9PKgaNFLFsuQCotS4NFWcMl9akBJAZHIv40SLFJZDrRC2xN5SD1ohbYFnJNWA2Lyk1aFOwrLJaiSM17gCxY66DxNFBhy5CLyNKwRR6R0FElBitpqxQ4mW8m1UNz0pm+qRkvkRpOE7SU2nznCqvqYsbIo+NYc/L8KnJ5fcNi06m/wCHbi1g9rAlSUJ9RQ3NcjKrfqPHcrPfJabDkjdaWkYLsrczKdJ1ijYBmUtr10p1aj8OJWq2xrEyw6gH6vE0F6C1owzsKFIZuBM4tVjasUnk0+dMqiSVs0mtNqgWxV3OlGkRDEGoobBDUelLZEWnH6kUjIbMBpcIaCsWQ6lC4gtYWp3HqNkOzALW6NBbYvJJagYLsBMgvSrdAGzgkpNijofXrSmQKklJsgkGSSltDEHR9KW0MTDpJ8aW0MTCB7W1oIGJnRIPE1IJJwyGpBJBtIKNIpsC7/GmpC3YVlkplULbFZXp1UKbE5XpqQqzFJGpiFNikrXptULYu9GkLYB6MAERVlM0OdwcUsRKoA9vUPEVzK5Gup694jz3urtlhCzbAWU6G3nXX4vKh9Qdp5/JG6TNjzC3gAa7dXpKIqpl72TwfbvKZrcPyhbGypTuwMyM2u3jE4OnypPLz5KV311r4r+oyuR43KNDzn23XAW+Dll2HWObQn5GhxZ96nwOpx+4+ZlZsLPxm/uIRY9RTdyZ0acmrLPioMjLid1BLRi/TrbqPnSsjSNWHlQ4GYp2GgNvhQQdelhpJLi1AaKslIbiqkISl1piEWFXRr1ci2Q22FDIti2QQL0dTPkcFdK3WnJGDJaRd3P4UxIz2cDnGgxn3ym9mNox+80vJqc7k5fA1HDcRLNIJ512J5n/ACrn5svgjz3M5tcfxZopcvFwcqJxAHxUjKSKwuGv1DVi2u3zOdxOSrzuKDkeIk46D/muDWQ4k5YyoDf2je4t47fnWzHmWT0X6oVycPiiuwe+uTXJAkIlS+qvbWn5OBWDn2wot05mXkJ29yNcdWtqNT/0rI8KqtC00lBqeO4/FXH95WMt9CQdfyrFkyOYKrx92p2f2bejejD+F1P7xVJsj42gkZHcErZrdQDr+VNiBaoxKeYePWmJAwIysCaYi4AP1oyJDELAAUFg0hxJBS2i0izwJgCKRkNOE9j+z/DDJyMjlZUDRQL7MVxoZHHq/Jf311OxcXdd5H4aL5vr/L8zpUO53bPcvKdx574vErg8Wr7MWRikW8L6S+y+71G7dK28zte627Go/kiq2s29NBWbtPmI+bg4iVR7uRZllS7R+3/E17D6fH/qKwvgZFkVH4+PgWyw+5MPCcVg8fx2Bgtkcs1hGIQd4hW4Z5Ao9RZul/jrpXX5Xb8dscLRrx/uLzX26eJm4O1+5cm3tcZkWPi8ZQfm9hXnlwc1ulX+X5khldmY2Vg5UmLlxtDkRGzxt1HjWPLitR7bKGgQQkH41mZJL7t/tXmeZIbHi9vGv6smT0x/Hb/N+FbOL23Ln6KK+b6f7jK6m+weB7V7ZbGbPnSbkMh0jx2l1ZpGO1RFEL+J662869Rw+0YcGv1X83/RByl1KLuHsvmo+Uy8rCx1lwJX9yFImu63HrUoQv8AHe22+lcbuvZLbt+FSn1Xx+H9gqtmbdZInMcqtHIp9SMCpHzBry98dquGoY1M6slL2hplhxHGZfK5a42MLnrJIfpRfNq18LgX5F9lPxfgkR3gtu+4u1+3eHxonc/8ixHtBdZJAT62cX0UeH5Dxr1nL7Dh9lVppkXj5/P/AFoZ78jb1Fu1OI4nlkymz8hsdYvaMTB1juH3XvvB/lFcbtHbcXId1kbTrEQ18Z8xlrmxg7T7bbijAipLGVYfrf7bS6kkn3NttOnSvUU7Px1i2R/9tN38YA3SZXursfA4vg5+Uxst2XHs8glKlShO30lQNda5fJ+361pONt2+IFrQpPP3lBFwbg9DXnlWBbsehcf9qcGTAin5HNljmdA8ix7VVS3QXcE16nB2Km1O7e74F+2ML9vOwcOZZMnkWb22VimRPCFuDezDauhrVTs2Grn1P5/8FbK+Y7zuH9scqHGHI5GDHBikpCseQsKrv1KkRMv8lbMvDxXhWXT8PyJfZ4wUy/8A+HY52iTFkIJa3uTz/SLnxfSw+VDXgYF+n+oucR5t35yHaeVz8R7Y2HjjjLv9uOSICYM+4bZAh+nbrXM7nw61W+unhBky3q7enoZ4reuMgGjcd2pLB7WVjoVnVNQvq3k9BbxrNyKrcj29VoUeKMnkofZ5XBbGyD9LBWCkeF79DWfJXY5qC6yY7uz7foRJPHG4K+pWQ3ro8PuDWhSoee5ONkY0gKsVmha8cg0IZehrt47q3yYx0TUHq/Dc6nPdvQ5M6hpgPbyk8pF6n8etcW1bcfJFX6f5HFy3thvoZrluHZ3c4WaYmP8A+GXofka6OHNV9UbeN3GltHoZyLk+a4vLBk3NEG/uRjowrTalLo6lMq6plrm7fcWeLWHIAkjPmDSK+R6jg591UfRydKpo6lQ4lutLgaBbbRJi7VBvt6irkXZCkr6VaE2EZzcU2pky6iMugp1TFfQ+47j8jks1MWEfV9R8hV5cipWWcrmcquKrbN5x/a8OOVedg2wWSNegt8a5GTku3Q8XzO8WvpUtyUAAXQDoKzHDvdtyQfa6FWF1PUGrQG5p7kG4TPXjI5cfIU5GJM10223IenRtCKDPi3uV9R1+Jy9+jDZHaXZ+beSNUx5X9TbVKt/2g7aFcvPXR6mi3HpbxFsbtztTGlaUvPJ7YNlZgiafAa0VuTla6IS8GNMPmPL/AMd+rjJwsCEWXZGz/hZbn8aHGptt62AtXTTQx3JclyOLkxStltJHOvuxEFtpQn+VrW6V0ceKtlEGO0z1H8DmRKFcHcL6kDWk5MEBTPQsOUw3fHjyscbtxsUDXYg+NKxXhwy8mFtSipyLQlY5H/vtqUHhWiuoNse1EsHCzM6Ux4yb2UXbwAFVe6r1Lx43boHl47k8c2lxpFt42uP2UKy0fiOeCy8CKO4O0gqfI6VbQGxlhiTEEUm6KWh6v9vO/wDlOJwZOLxuOPKSStvxMdG2PvI9Qvte4sL10e1850t7bUp9DfS726amw7e737sz+6I8DmsKDg8MRNL7U25ZpT9KqjOwB18l8DXcXMp7mx6W+On59fwCpe7eqhAuU+4eNx/3FnxZYvewcPE9iSRAC6SsRKxW5Gh9KsPh8KLPyK4lNgXl/wAkfAtcP7h5PK8ZPyPB8BmZsMEntOkjxQuWADHau591r+FOrdNStQlmbUpM+7E745bujLyjLxa4GDjIP7hkMjNI50UelB0BJ0/fS8PIpkna5gvFktbqoPN+/e4P+V76zVg2nEwUGLvA+poySxv/AFsw+Qrj98VNqf6vD+pnvkm78kaXsji+zhxMnNcxOhbGfbNHkELDGeqen+PcPP5WpPaeFhvXfbWy8H0X9x1NsSy85HuTvLlsJG7M4rZgyqfZ5XKaKMFRoDFA53W/lLL+FeibcaEte1l6F+IXB7BiyOAX/lNzdyPaaTlHkMsqZCXKFJBtKxj+QW0+OtKvjd6Na1b8fFBVxaa/UOcLxnfmE6jM5PFzMf8AiilRmcDyWVRGf+5WpfFpmrWMjraPHUJK3mVvdfenb+Pj8hhcxhbeTxIiceORDLHI7Juj2TILqDf+LaaHkLBk9GRJ2+PX8P8AYq2XbJg+Cc8kcVZnTE/UEAu59Kgn6jXhcnDquR7StpMS/wDX4DceSayexcXxmFxeI3H8e6fqwgkdpPUzFrhXcKQdtwbV73h8PHx6bKf7v5kbkzvZGNDyuNyh5qKPks6LkJllyZokZLxkKqxht+0KEB2+F/OipZX3Va6ea0fyFY1K111Bcbjdg8jyXL4PsplzY2SVMCrJJZAqbrIlxtWUsvTw+VZcPbePju7VXqn+HyL3q0o1eDhcXBxP6XCwgmCFbbhe17Ya+pXZKE+r/V+NdJIJJRoVHfHc3E9s8GiZGO8kWWGxIMfHCCwMZHQkAKOmlDeyqtQMt1RHhuC0zYcSyKVkA27SLHQ2Gnyrw/NrX3rbXKf49f8AczUb26nuPefA5PKvwOOmGubhY2ckuckhTaIRGyElXI3fV4V7mDRlpuj5hzwXbGI59ntmEsBYtFi43Ty3HberL2VXgWHJ5gxeOjnXjJ80jbtw4EiaRLrb6XdEG3obGrYdnC6AeE5bI5L34sjhsnjIowNoyhFaTde4URs/Txv51Cq2nwg/Pvd/D5PGdx8jDLhfosdsmZ8Fdu1Wx/cIjZPhYV5jueHZfTozm3q1Z6FMV1rmgHto4SBJo8xQWJAWx120zNxtVY9nW86D78bDkptdQbdb+dNeKtvADdApl9r8dkLZ4QPMLpf50u3Cowq5Dx37l/bnAxony8KIF9dyi4Nj5+dqul3ittnQ24aSjz3sHKaDPzcNz/blj37f9cZt+6tPPW6qscrudNExznGXcSKTgR5+NTPnIkB6mtyqa8d7V8SywcjIyU/SyRPkQH6di3ZG81tSr7a6ydrtnMz476K1qh5uG5THOmNJJGdVZUPT40tZ6PxPofHzbq66CjOyEq4KN5EWP7aYmn0NasDaQedXBUyDeUHpVi7MWlkHTxo0hF2KyP4nSjRkuwOPhZWfkLBjIXdup8B86O11RSzj8zl1x13WZv8AgeCxuJx7L68h/wDdl/wFcfkZ3kZ897j3G3It/wBSydri1IRybIAdDRoSyBNqskSV/LwzvDuWxhHl9QPxo8dlOp1+Pioq+nqVvM5kuNwGJmYkypLFKIpRe8o0LdDrtrTx8e67VloMddNC87J4Xme4+Rw8ja0uC7q2SXaylQdRZTesnNy0w1svEHDhta2pve5MrEwMh4Y1VClwQPpF/AKa5HFpa6TZqzWVWZTu3tHF53D4/N4wQRZchP66US7dsY0W8fT8q6PD5lsTtW0teAjJjVlKHsXiu3e3YD/xcrZGXJZXnl2swXyVQNAaRbPkyv1aVLVK0Xp6lvxkUPIcbmQewJ5lXcq/T01GywuKzZXssoZox+qpnIu3u35JJczJSaQPbbFu6W6i/Wt37i60qK9qvVmk7b43jYWkkxYBEji3mSPxpG+1rRYZSqXQtsiCEKdwG1RcnyHnUu0ugwwfN5UXIADEwyFVz/5NrhlGg2/CtOKu3qzJltPRCWJituGlHaxmVZPRvtTjk96caLGy+6xI8AIX/wAa0dr15Ffx/JmzFWCx+7eQ79+LDuPtx4MYKH6dXc9P/VXV71WqorfqlKfHxYN3/kj4GVxoIYWYxJZnsCBc9Olq4uTlZMiSs5gBUS6Hr3OGftX7brhYiM/LZaDFgjiBaRsnJuX2BfUWUbtvyFet42H2sSr/AKkdkbrTTqYPtPvzkO2u3p+OiwlmyJBI6TlirpMy2UuGuGCkDTSuVi7nSmS1WorPVfw1E47utYMpx0bxwlpbmaVi8hOpufOuV3Lke7k0+lCsdYRoO2u2o+5OSHGSTCBWRpDIV3/RY9Lr++h7bitfLFXtcdeo5Y92jPdpMHKHHw4uJlfpniVU94Rq+irt0VtBXs0tDW1oVs/FZ4ucrubLhFgSETCiHzu0DG341IAdX5/kVnuYuJ3Hw0eNz0+a088sORivOkqlf00rruRNtrMo1t5UDmVHTxB0VlqYr7k3j+4Mlz6ZcCJrfJytcL7hr/jq/wDt/RlT/k/ApA4AAGgHQV5FqR5vvtVH7mZy+W7vJM6Y0ZLMW9Ke4F6+QFq9f2DkXvW1bOdsR+M/2BVUnIbsTu3jsmbN4GRXWcZ+asDop2yK8rzfUuqkKx1NvneuuuVT3Pbf1RIvFaZXxYtxXA4nbXfb8dwXtq+dgvOEyGd/bAkAtp6ren03PnrWe2HIuQr1a27Y18PH+hKqtbQjd4qct+kcZcsH6w39t4Y39tbj03VnLNY/EV0hqk8h+7GDykfNcX/yXJnLRkkfHhEXtIrIQW2gFuulyTeuV3XLemJwpnx8p0MmavqUszWDaTkcWO9t80a3+bAV5XBWbr5oo965KfkW5TEwcOdcf3oMid5Hi90XheFQNGS3+8fGvfmqzcwgUuD3eSPa5fEQeO/Bdv3ZKVRTVvP+X+45lx82OMVMOfG/5MKgaeaJ/ZZhbefbSQMt/Abzb41YTmNOpDh17gRJf+ZlxJTceycOOWIAWO7f7ryfsqIqu7xPz13n3dm90c2MqWJIYcMPjxCMn1KHJDNcnXWuL3XLTbt/X/Q5uTK72+RSgVwgD32XIj2aEGyeofIVvyWSk9hSoxxk8U2OGXUEXBFDgsrKUBlrDGmYMoCi/gadoLRj+7sRZoXstwoN9K5vM01R1+Cz8589xzcP3VDlRoVhncq/zOhpvGze5hh+BXdcC2tjc3G5XJ5QxcVN0jdSegHmTQVy1opZ5jicO+a+2q1NLwv2swkKy5rnJfxT6U/LqaxZ+626V0PW8btGHDrf1W/kbrA7cxseNUhhWNB4KAK5GTlWt1Z0HyFXRaDUnEIottFLWVlV5Vio5Ht3DyEImgSRfHcoNacfKtXozZi5bRj+S+1kWTPfAlONfqhG5f8AMV08XdXVerU1fu6xLLLivs/xcID50smW/l9CfkNf20jN3m70roZb9x8jRY/ZXDYy7YMKJB8EFYrc7JbqxL51mcye08GRSGxI2HxRf8qleZfzLXLkpJez8LFLtiwLCW+rYLVpXNtbq5M/M4GDlr1qLeaKXkOOyMUbiN0fTcPD51sx5lY8D3PsuXivTWnmV4fXU044lkzjMCKsB1AOTRQBBFJGRty62+oWuCPIiqcD8FLO3pBci3GSwynkOKS9wY4seMmQ/wBVj6aPFuT9NoO06Lbr1CcF3rhdp58E3G4bGB4yuRisdrJc3666iqz8F8hNWeoFMmxyL91SR9yZcfIYIYrLHaRb+oPfW4HSr4q9hbbCuR63KKDC5buXg2ELq02INFDgmy+V623x4suqcMBNo1nH8tickivAhinAu6OpH7fprnZMNqfEI3/YGNKv6rLyXVUttRCQDp10rjdxu9FVGvi1c6lVkcW75skONu/S+4Ssj6GxN/xrVTJFU31JdamhgXHw41RjZrdKGrjVlme7rTkJI1kxcpkhe8bwD6WVupNM49q7nIvNO3QWxMYokWNZisaDc/8AC3lape3iLroj5sREmbb0vU3yXsNx9pId3d8bWP8Abglb9gX/AOVdbsuuf8GMS1EvuIs+X9zORhgiaSVIoIkRAWZiYkf0qP6q6Xek3WqWrn+hmeuRjfYfb2Rl93Q4+XE0YwD7+TG4IIMZG1WB83tXP7dxnbPFl9OrGVrNjYcz9xMXA+42Nw8yRtgww7MnJIG6GeazAg/y7dob5/CvTZs9cetvkR5v8kFH90+0v0WV/wA7hL/4eUwGWq9I5m6P/TJ/939Vcbu3B09yn4/3/uVlrGp5/c154UGxsrJxpRNjyvDKLgSRsVbX4rV1vautXDCk917p5ztviOHxp+4Y1mxZWVER4vfvJsJvtIb+G+te+nTU0ZL1qtSjwe6OxcjD/WcX29Nl4kLe2ZsXjlYIygHboARZSPCq3IWslGpS/kAh+6/aqZn6bD4LkP1jMESNMWFGZjoBb3N2vypfv0mJ1KWdeCZSfcfhOdbmoe4sqGOPDkgGMIkbdJEQxZVlP0ktuOq6eGvVuV3yreHp4/wLdXv3GVEhFeQgZJ6R9oh/a5OS/VoVt/SHP/yr0/27WFd/L+oVWO/b/tfhsWOXmMbJXNzMmbIaSSNrxxmRx/bt4MgFj8z4WrtrjU9z3P1RH4C8VUkVPHcbjcn3pz3Mczk5PFZeBIMfD/upAv6UptVwWBPq2k3BtrUyUV3DbT+GjAqpu29DZcFDxCcfkQYfJScnjh29+aXKbKdCUW6+5uYr6dbfG/jWhDqRGjkwfcHIfaWPic9sKSHI5NceU4rj38hxKYyE9bCTbdrC5NqRnxVyUdX4me98aWnUwvar/qOd4g9DLl44t5XlUV5THh2chU8rr8xWNy0br7wAZHcvbGC880MMpnEzY6s0gR2jBKqup+mvV8l+n/XmM5OtqouOa+1/6qfGm4fmc3ikVVjyEWaZ9ygfUNzghz4308evUslbONrgO/Hno2jWJxMScJHxUuVkMiRJAcv3mjyCRYBvdQq28n86cO26QZvE7EyoJcmTm+5M7keICm2HPKY4/aAu36hwfWPPoD4+VAk/EUsLXVto8j79z+0snuVz20oGKUAn9qP24PdT03iGmhUDwAvqL3rjd146/wD0XyMWW1Hb0lBY1xCj3xXhlwywADOurW+FdC+tWevrKY3xAhWFF0soFiNBU4yqkL5EtjOXlCFDsFz1AFOyXVegvHSWZbmZXkx9zjajG4v41yObd7NTr8Wq3aHiP3RESRJKvpZXW34Gkdscto38/FOJl/2Bx0c2O+Uy6ubA/AVi7hkhwZ+3cf2cE/qsb+LCWNN1q47ySw7ZZJPMIhfwqRIKrICTKR9b9KNVGrG0AOQt+mvjRpDFjY9iQxuA7CxNKtaDNku0OkxINLUvUTqxKecD6fxptUPrQEs7sbdR5VcQE6QdlxFkXVetUrQSuSGVGZxS2YbQVbqD0rRTIat9clYtqjCdwcG2ExngBOOT6h4of8q6/Hz7lqeK712b2fXT6PyKUEnprWs877bfQHISNfCiTLeG1eqLbK/Upw0JggAaZdQANf8AUTWWrTvqdvDSKJpamb7dkyR3KMDI3FclSjp1s3VTetvIVfa3LwBhzqXHPdt8HxUDZnJXmnZgseMHWNmU9WF/Ks/Gz3yaVCXHnoYebu3jeHz2k4WOR5gSqszAKFPgbXua61OFfJX1s14e3T1KzJ7x7gypWlmdFDG5TbpWzDw8deiN9e30r1RyPu3l1G1ZNnns0rV7FPJCL8eq6B4+6uXJBbIkJ/qNBbj431qhXtF1xffXMwOrCdjbwOtY83b8VvATbEbLB7+gzin65fbk8ZF6fiK4uftlqa11FWrBf5WTHk4qSYr+4I+gHju01rnKuy3q0E3WgFppcaONVVI7/WBra9FtkUxr2T1Ot/Gg3DUtDVfbPkuO4zuRpc6UQRywNDHI2iiRnQjcfAWB1Ndbs2alM3qcSo/HQhr+d+5XYfb+Vky4ax53K5BHv/o1Us7AbR7k/TS1tCbeVexdkhF89K/MW7Q734KaHl+4eRaDA5LI9b4O5g/s40foAL7d7trfZ8NNKz4c2K1nta3eMEpk0draHkSZWTyGbmcrlG+RmyvI5/qa9h8PCuH3jPN1Ty/NmbHrNn4npnbX3C4ePtXL43uXdLFjRbI1ALtNC2gjFv4l8DcaeOl619t5yvX279fD4ryNCypV1PNYsmOcO8SukO4iMSWLbL+m5AAJt1tXG52CuPI0np+XwEUtKC1jCk9v5juf7cZPHY2VyuXiT4sTe7jwy/3GDqLf7Ni9wG8Vr3dMlMlZWtWaL3pGpgeB+6Y4hcrD4vj0zOMTKkfHYs0Ehic3XdcOLgadK5n7inEtsf0OWv49BNc/kjUYf3j7ZmdG5DAysOVOkpjWZFv1s0ZLf+2tlOdhv0sv9fMYs68UwvcPL/bTunjTLlcokpwkeeCJZ3x5NyqWO2Jym5vT/LetF1WyglrY7rqeT42Ys8KyqCqt0B+GleD5PHeK7o+qKpfcpNt2L3pw3buJm/8AI+7/AHnjKmJN9gLgk6j+auz2Tk0pNH9VmGrqq1B9ufc7iOD7Qmx8PDmbklklkTem6KWSSS+5ipBACt+zrXbXLxq7pPq6/MTTMq00RoW78+3PO8XBP3FGkEyrubGyY3kKki5CsincPh1+FTHmw5redq/xXgMeWjXqI433S+1/Dwtj8UhWFm3NHiYpjDMdLkMI7m3nWrckCuRjr0KXuL7wcHyPBZvGcfxWWpyoXijeRI0VWYWViqs/Q1ny58TTVrL+IF+SnWEmYntvko+P5Xjs/KRnTGljllRQNx2m5sDYXry9b1x593Wqt/IVjtENm6yPvJxf/wC0LlwYGQ+EuG8DLKkaye8H3qVYO42EaH92lelfPxqm/wD5GvlLd0KSf7sdwc5y2NBkluH4KSVVyVxH25HtE2JM7Lu0/wBIXT86HJ3HFVxM/L+4v9xaz8ql/wDcTvbtHju1Mjtjh5hlZLqsSJE7yLH695dprnc1x/MTfrW3fWJnQZnzVVdqKzsn7t53HpFg89vzMMAKuX9U8f8AV/8AyD/3fPpXIwd0W5q/SdH/AHBxchrSxlO9uX4Hke6MmTgsRMfBWweVAUEsn8Umw2238NPietB3WlWldP8A3E5LJ2cIqBXGgo9ex+U5SdY3g4udoVAuDtS9h867P/rcj6tI+gWwUr9V1JYw8w6yAZHEZUItctFtf1fEXFO/9dHRmW3G/wDG9WBy+f4gEiWaXHt1E0Eq/tsRWbJwcgePi5fBJ/Jop8rmMPk4imPMshhJ0DAE/HabVwu4Yslq61aSN+PjWxP1LqeJ/deeX3FVWvEzBVXxuDrTO01UHQ5NG6R5np/ZeF+l4TDQize2pb5kXrg8+05LCuTpFfJGkmyFCbR+Nc+tTDWhXZUl0OtaKI146wylkzJI5CjeFa1STfXGmpOJn3YA3BNX7ZHh0NFjZFoVv0tWK1NTk5nVPVg5M6PcUEgLfyX9X5USxsrG1boJS5h3WvTVQ21xlxxkBMavINW6Vly3jQxZ76wPMoBpEmaZE8yG96bSw/FeDK8xjXV1IuCCCvgQa6OG8M6Pt1yUdX4nlXdXNJx+JJhQqRlwNtIOnpbVWv46V6Hicd3ab6Hks/E9hwUPb/cck7HGzJBuJDQA+lWPTaTWvkcSNamO8XUM2WMOb5TGXBN4sGQ+oqbkqDfbu/lrlWdcb3fqGxBgea7iy8HnpJcRjHmRMYsZIusar6VuR4mu3g4tbY9eheHiWvaWVvcuN3YciOTuBpRkTAsomYFrX1uL1s49MVdKI7VONC0Kv21hH+s1pSNDoqL4nDuZiSaYZ77mESPcyhbsx0tbxqhbqvE3fF/ajuTNwkylEcW8XEchs1qp1MmXLRODr/bPuiCQp+nD2FwVYEGlWqzPuqyqysHN46X2siNopR1VqRZCrKS04PuTKwZAVc7fFCdDWLPxaXM9kb2LkuLz8FMhGKtus8dt2xrePz8K4mXjWx2/6ibItceeBoBsUlUAUt1NYmmmHVh2h8aqrklkLHChRy6xqHbqwGtbXnyWrtdm6oRsS1gHJCrKVdQy+R1q8d7Vc1cC7VkisSogVRZR0FXe7s9z6gxBwi411HiKFOCoOAVCjpJ6VcEgjJBDIQZEDbelxTMea9Pps1Jbqn1CCygACwHQCltz1LJAmgaLOPHFJ/uIrf1C9HTLev0toran1OqEjQKgso6AUN7Oz3PVlxB9voCHxaoVJByrLZtQfA0VW05QMENF0UAfKj3N9QCBbSoQgzUaBBuaIGAZN6sqAZVdxaw3Hqab7ltu2fSVB29AWdFr1ZcBEqwkj9HQ42SYls/trYaKLV7fRHod9fmQkgx7Wkndz5ISf3VchVu/BCk/GYkoAWHIfyJNv2E0S+I+mey6upU8j2fg5Q9eFKW8HG24qrVrZQ0bMPcr16WRhO7ftBj55x8hVyf/ABm3nHINpLa2LXa34Vzs3bKNN4/TZnSw90rfS0B4+Yh45fZzsSfD9sdSnuKAP6fV+yvFcv7e5NHK9XyNN8W9zVpk15rAy0L4mTHkJ5owJHzHUVyHxr0cWUBLBZdUBfN8zRKg5Y9Sn5qW2LI99txZTWnCpZj53LrSmxP1DfbXEZEkSZGc14iAYl8W+PyoOTmScI42PuGWlYTLTuKZYuNlbCkVZkQsoGpBHwHlSOMpt6jArzabalPkTYuXwfHcjA00gliZ3kRrrF7VhZwOrlvzrtZcda1j9Q3DkdbyhzjD7+Xc39sdLi351ys2iPXXt/jTNfjH0qB0Fcu5xr9Rh7DrS0KQLKC+1cUVEMp1M5nlXuCAb6A1ux6HUxKDxH7scaEyYMtNNxMUp+A1BNer7Pk9O05ffcOiujz7IkF9sRvt6Ov+Fdqq8zzRq+1+4Obw+z83Ex1b3JJScfIY/QhX1hfxrBzMGO2erZ0uBwr5df0mOWXN4/L9223M1IZxdlLfxC/Q/GunVqy06HWeL21AaUZSye7lu0mTModSx3sQ3Qk3PWn0ovAOl4Rpe1+wOU5ge9MhSA/xGtCxmPLng2UX2l44AK5YgeI60ewz/uir5ngu2uBwriGVOYL7cOJ9fc1sGHyrM7xLfgPrZ2/+J6H2Tj88OII5pgJgbxQowZ7N0DEVyc/cm/8A80ZMmFbtOheSK8TAew8juQt91tgPjWHJzs3yAtxjz/v7kOBkeTj85/bz4fpcAmx8NxrpcfI70TfUy2cHmpIWQi9wDoRV2QplxwvLy4c4YHdGw2yIejL5UjLRWWom6PWOE/TyYsUsbq6zLdLn1fEWry3Ko62hl0RaMqKNTal4wrgXiFq0oU0LtGL0aFNC7rr8KuRbQMioCc1qymcIqyjtWWfXqoKR9uqFyfbjQkk+BvVMknxI86qCScLVEURLGiRCBNqtAsgTrRFECRbSiRCDEUQMAyatEgiTRIkHaskHQQKstBFvVwGkfpeGJplRmNobCyefzr2kpHX3KvzGvahjW4UaeAqpkXvszhE7Lp6B4W6/nV6FqECbBQ+qV2P4mpvDWXyAyYeEy2EDSfE/9aOtn5h1y3XiUuf2/hzlg2CWFv57Xpm9+Zvw8y1f1GU5n7acDmI5fjpUmbpJC4V1I6WYWNJycel/qSZ08Pdsi/UjDzdr9xcPOy4M7ZsKAlcXJ/3LD+Vje9crkdiwX6KDsfvKZK+rT5FZLlibOji5DepazS4ko9trrqdt9GHyrjZ+yXovRqcrN2i1rbqW3fDxBcv3/wCzK63MUcehU6E/ADyrmV7bZdVqcLk8fLS8WUFXxXc3NdyZDYXFxLFD1myJOgWm5uNTDWbC9qr1LfjeHxeM5bFx45JZ5Xk3ZI3lYFI+k+2PT1pGTO7Ub/5IsjZrY0ePmngtYaP/AN1cyzmknssN1bjpmrw3VUF65t1qcvIjuVma6dKlaEpjE580bNt6dWg+mLUo83IA3N5VppU6OKh5P91pFm4xiDqJEIr0XaNLmTvFP8LPOuKwGz83H4+AgvMf7rj+BB9Rru5r7Ku7PK8TjPNk2nq8HH4PFYUcuxSuOP7EWltPFq848ru9erPX1pC2rSqPIOWyHz+XyMg/SXNj5gV6bBTZRI53Izp2hGx+3vZyclnxTZCF473C/AeJro4aGHPmhHumLx+NjQrFEgREG1QNK0s5rs2dkjVIywHQVRaPO+3u3YO5u/MvKz51K4pLYWO9/UU6Bfxrjd1d3iaqbLZNtYRtsPF5GGJWeExvr6SNVAv9RPn1rz9cldExu5JaMXy+VfCQvhL+vkVtspR1/ti38APWupxOHu9V1oY8+RmE5xMPM5L3cyzrKT7kcvpkUnxF66W1LoZbGE5UYcOa0eIbxrodb6/Ok2QtkYJCD5UloBm+7F5BpGOIW9af3Iv/AJCuT3LF6dwqT0TFidgZpdXbRfgK4Y2qCOtOTI0LSoOtGmKaFJFotwpgCDVyLIkGoCzlEUcoiHxNUST7SoVJ9eqLOWoWQ+NSCHL1EiESashAmiRCBOutWSCDGjRUA2NWTaDLUSJtOE0Re05c3qybSam9QvaHSrCSP1BjJaFB5KK9ibrOQpUXufwq5BO1RD7aOpqEAvMx0jTQeJo0kMVfMXeTKvcICPKjSqMSXmfCaKQlHX2m/wBXT86F42TZHTUTzuDxsgK4AV0O5HHgaul4HYuVaukmP7y7K47ncL2ZMZP1eOxa4Fr7hb0kdDRWpJ1OHzLY7TPpZ4N3v9t+e4whkJz+PZS0Ep9Mif6G8yKw5eM2zvLk05FNt+or2XkS8WzY8ytFLIPpYbSQPLzrzPc+PadUec5/Ctj1WtPM0ycpJDmbcMqvvj1yNrsK6k/C4rme1K1OPW+hq8TJjXJSUyGR2hS7E3vqa516OGviev7Z6sELwZaryq7bX0rM8RpfHBTchuHWjrjDphEps/Q60xYx9cJTclyioh9WtaseJmmtIPKPuPyXuYAjvfdICfkNa9F2rFFpOL328YoAfbzDGPGc6TWSfRSfCMf5mi7nkl7fIz9o423HvfWxd928/FGv6ZWAut3t8elYuHx29TZnzqqhGIjxdzJZbe4b/nXo8NHOpwp9Unu3YWFFicZCVA3MoJ/KutRGLNeWa66WuatiZKjuHmcfAwpZJLbApOp60Mh1Un555DvTlF53/ksWYxSxsTGU0AHlas19Rtr+A3zP3W7o5cQjIy5AIRptYi5PjSFhrXVIr3EugnD3ny8XuPiP7BkA97bfW38Vj0PyqxNrSKZnO5+bJvyZmkfwZjrbypbFtgY59ev50EAsdTI3OTYAk+HSl2qAzR9rcj+l5XGnvorjcPMeP7KxcnHuo0Jt1PdTsKgr9JFx8q8pKWhr8ATVe8BoWltUVxbQnIaarCLAGpiFshRC2RIFEmUcNFJUnKkkk+qSUfVTLk+qiSfVQRE1EQiastIi3SjLgG16iCgGxphNoNrXtVl7QZNqMm04WFWTacBqF7QimrLVRiMVcBbT3bt/7mds8pwsXIQ5F1YFRDb+57ij1Jt8xXpOXzseCs3f4HS5fEthtFivz+9+4MhyMCOHDiGoLj3GPwJPpFeXzfc12/RWPmYuotH3/wB1Y0gbKxYMmCwuLGI/9wLD9lFh+5L/AKkmMSTNVwPenDc1J+mR/wBPnKLthykbj/QejfhXouH3LHnXp6lOkGgC10GDJ8VFQqRefHDi1r3o62gbS8E4IhHEqHwFVZywbuWKjFDZjyMP4bUzdoO3xUqzxOJktmYs8QaHdcD+of51b8zV79qw0ZPkeweNzHlhkx0klh9aki3uJ0Gvg486DJjrZao3LmOPgzC9zfajPfHV+JmY48ZYyRMNs2vVWPwriZu01ma9fiJtx8V3/wCL/kzPQLykeemNjwyyCKNY3BXbsPkb15rk4vblX0Z6ftWKuLFFjWYXF5zKDMQh/lveuVfLVdDTl5FF0Ps3CyYFudV86qmRMmLLWxnOQz2ivcmtuPHJuVUZXlOZZgbmujiwg36Hm3c/JSZXKRYy+pBZSP8AU5rvcPDto2zyHd83uZlRGvkyYeO4yHHg9UkaB5Svhp6U/CuW6PJdtnWnZT5IxOfnSZWSZJGvrqK6+DGqwjzu93s2zQo0PswTqwIRdbV0NsCrm44L7icdjQJF9O1doufGtFbGe1ZNJg95w5UBluNt/OjbQOw81707sbMllBZjGpMabfpZvIt5Cs9ra6D6wkeZyylmJv40sz2ZFWueulU0AHjkNA0CxqNHeJ5ARtTreqgogkuulC6kY1BOdBel2qLZecZPaaM38azXQu3Q984jkYcjCxYwf7nsoTf5V4rPidbP5mml01A2xNKRbFpm0vTaCrMQmk1p9UZL2IA3FMFtnxqwWRNqtAnLVclHKuSHxqSQ+ANVJD6xFSSz61VIRw1EEkQINWGkRajC2gmverQe0E1ML2gmIq0Eqg2YXoybSO4VZew+DGrJtCoauC1UZiq4L2nonbPEYV8SBY1hgjAUIq+kLboB4V52rebNts+oVb2y33W6mh5LEjgAXGTaja7iN1tutm+ddDJwcdeiOph49PFFXnOAiKy3Rh6r6i/+FczPhVbaGbPStXoZ3mseJQmRjkxZMXqjkQ2ZGHlTeLmtW0mK7jU9D+3vfq83B+gzXX/k4R9Y0Eqjxt/N517jtvcPdW231r+YKaspRt665DmnlULPjUKBSsiKWY2+NEkFVSV0QYNI/jIb/hTWzXZ9EKou7kzY/RHZh/Uf+lX4DH9ALMjWLkI9v0zqRKvxAupoWk0Fj1qZDu7g0xXblYFsY0LSov8AEn+Yrh917cuTj0+pHa7dyp9D8SuwMiCSJWvcMAwPzr5xko0b81GgHKTJYr1FHhqHx6s867qdY9xHSu3xTrUtoeb8pyW3dc6Lqa7uHFJm5OdVq2ZPjoWn5T9Q5Js28n4npXUyW20g8lw5y5ne3ma0MkeJKW1Zha9cjV2O5kt6WYvkX2NYeNdnCpPP5vSQxuXnijMYYlfKtZm9w+XKk3hr1BW4vMPm+ShxyISbEWJFWrBSVPIchm5CrFMx9qNmZUPgWtu/O1BtUyDuEGFxcdB4+dWAzlrGo0ASFAQn7jdPzFVBQSMt5VTRTDw33DwpdgGXnGm8ifOs2QTd6HsvEZnsY+BIynSMLfzFeU5FJtYBX2svG5WEtbUX6GsSwsc+QhebkIybL6h4kUymMXbLIEybm/00aUCWSLadaIBnwJqwThqwSJJvVlH16kkk6LVJIdAF6oI+AqFo7tNqgcEStWGkRZRUGJA2FGmMVQLXtRDFUE9GhiqAY0aC2AmOtML2ESdetQv2zoJqybAqdasvaNRmigrYep4+csccaxFOnXQ3HiT/AIV5fZajlGPHl2slm8lHs9TAAjTXxPjt8a3vnzWI1OiuYVcvKRg2klBBFhfzrBstZyJy5qsouS5XHlZ/WAACVI8604cLRjvdMyQ5bIwMwZuJMYMiNtyuhsRbXcPOunimrTXUzLJseh+gvt535j9y8PE2S8cXKov/AJESmwe2nuID4G2o8K9bw+Ustf8AsbFqpNb70f8AMPzrYWQbIiHV1H41CJC00sB1aVT5C9HUbUWkyla6xMpa2hPS9EOS8yGFGkKFpJFaaQ7nbQa/9KK1vIu956dBTKZH5BSHH9sHS48dKq3QfR7aGb+4fOY/F9uZuXJ/c2p7SopGrSekfvrNZxqdHteHfmqvieZ9sc6ZeHw5ZCEYxAbfgug/YK+dc7B/lceZ6rPhrP4jmZycb3IcfnSKYWiqUSMN3fmocZ23C4+Ndbh49UXe0I8i5nNPtst7ljrXqOPjPO915PoheJHjJvajCta59THxos1JYjhxSiQ/kcgDDtv1rNTDqacmXQz2e4dgb10MSg42e0ia2B/wrQY2xobdl71Cmy34DJRpfZk+hutAwky4zeAx5F3IbHzokQo8zhciNhYC3gRrVSCxafAfcLC1h41QJ9Dx2RIdoqiD0HBi/rf5gVQI9+hxoYyQoFupqmCIBELkjpek2YNi14iAtkpr41mzWhCLvQ9QinjiwopQ+9W069LaWrzVlNmZLWGlf3o9xawI0I1pbUMtajmPNhpAFSTdMdGNrUt1tIxNBIZUb8PjVMqQgkQm9xUgW2S3pb6hVlSc3rfVhaoUd3J5j86uCj4GPzFQh26/zCoTU6GXzFUGjt18xUCR9dPMVQxI+uvmKtDUiBKeYohqQJ2W/UUSG1qAcr5i9GNVQEjLfqKNDVQA7jpcUxINUAswv1FGHsIbx50UF7Dodb9RVwTYFSRb9auCtgzFIn8wqybT/9k=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,6 +1874,10 @@
   </si>
   <si>
     <t>鹅肉与柿子相克：同食严重会导致死亡</t>
+  </si>
+  <si>
+    <t>yinshijiankang001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3458,11 +3458,11 @@
   </sheetPr>
   <dimension ref="A1:IY23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="3" spans="1:259" ht="165" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>132</v>
+        <v>548</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>131</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>131</v>
@@ -3780,7 +3780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -3849,28 +3849,28 @@
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
       <c r="A3" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>139</v>
       </c>
       <c r="G3" s="29">
         <v>3</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1">
@@ -3878,25 +3878,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="G4" s="29">
         <v>2</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" customHeight="1">
@@ -3904,25 +3904,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="G5" s="29">
         <v>2</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1">
@@ -3930,25 +3930,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>156</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="G6" s="29">
         <v>1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="31.5" customHeight="1">
@@ -3956,25 +3956,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="D7" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="G7" s="29">
         <v>4</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1">
@@ -3982,25 +3982,25 @@
         <v>26</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="D8" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="G8" s="29">
         <v>1</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1">
@@ -4008,25 +4008,25 @@
         <v>27</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="G9" s="29">
         <v>3</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1">
@@ -4034,25 +4034,25 @@
         <v>28</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>181</v>
       </c>
       <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1">
@@ -4060,25 +4060,25 @@
         <v>29</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>142</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="G11" s="29">
         <v>4</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1">
@@ -4086,25 +4086,25 @@
         <v>30</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="D12" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>191</v>
       </c>
       <c r="G12" s="29">
         <v>3</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="31.5" customHeight="1">
@@ -4112,25 +4112,25 @@
         <v>31</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="G13" s="29">
         <v>3</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.5" customHeight="1">
@@ -4138,25 +4138,25 @@
         <v>32</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="G14" s="29">
         <v>2</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.5" customHeight="1">
@@ -4164,25 +4164,25 @@
         <v>33</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="G15" s="29">
         <v>1</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1">
@@ -4190,25 +4190,25 @@
         <v>34</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>208</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>209</v>
       </c>
       <c r="G16" s="29">
         <v>2</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" customHeight="1">
@@ -4216,25 +4216,25 @@
         <v>35</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>213</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>214</v>
       </c>
       <c r="G17" s="29">
         <v>4</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.5" customHeight="1">
@@ -4242,25 +4242,25 @@
         <v>36</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="E18" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="29">
         <v>2</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1">
@@ -4268,25 +4268,25 @@
         <v>37</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="G19" s="29">
         <v>1</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.5" customHeight="1">
@@ -4294,25 +4294,25 @@
         <v>38</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="F20" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="G20" s="29">
         <v>1</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.5" customHeight="1">
@@ -4320,25 +4320,25 @@
         <v>39</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="F21" s="29" t="s">
         <v>230</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>231</v>
       </c>
       <c r="G21" s="29">
         <v>4</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.5" customHeight="1">
@@ -4346,25 +4346,25 @@
         <v>40</v>
       </c>
       <c r="B22" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>235</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>236</v>
       </c>
       <c r="G22" s="29">
         <v>3</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.5" customHeight="1">
@@ -4372,25 +4372,25 @@
         <v>41</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="D23" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>240</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" s="29">
         <v>1</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.5" customHeight="1">
@@ -4398,25 +4398,25 @@
         <v>42</v>
       </c>
       <c r="B24" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>243</v>
-      </c>
       <c r="E24" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G24" s="29">
         <v>2</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.5" customHeight="1">
@@ -4424,25 +4424,25 @@
         <v>43</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="D25" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="E25" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="G25" s="29">
         <v>3</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" customHeight="1">
@@ -4450,25 +4450,25 @@
         <v>44</v>
       </c>
       <c r="B26" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="D26" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="E26" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="G26" s="29">
         <v>4</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1">
@@ -4476,25 +4476,25 @@
         <v>45</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="E27" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>257</v>
       </c>
       <c r="G27" s="29">
         <v>2</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="31.5" customHeight="1">
@@ -4502,25 +4502,25 @@
         <v>46</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="29" t="s">
+      <c r="E28" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>261</v>
-      </c>
       <c r="F28" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G28" s="29">
         <v>1</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.5" customHeight="1">
@@ -4528,25 +4528,25 @@
         <v>47</v>
       </c>
       <c r="B29" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="F29" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>265</v>
       </c>
       <c r="G29" s="29">
         <v>1</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" customHeight="1">
@@ -4554,25 +4554,25 @@
         <v>48</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="D30" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="E30" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="F30" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>271</v>
       </c>
       <c r="G30" s="29">
         <v>2</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="31.5" customHeight="1">
@@ -4580,25 +4580,25 @@
         <v>49</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="D31" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="G31" s="29">
         <v>1</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" customHeight="1">
@@ -4606,25 +4606,25 @@
         <v>50</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>279</v>
-      </c>
       <c r="E32" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" s="29">
         <v>3</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="31.5" customHeight="1">
@@ -4632,25 +4632,25 @@
         <v>51</v>
       </c>
       <c r="B33" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="D33" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>282</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>283</v>
       </c>
       <c r="G33" s="29">
         <v>1</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="31.5" customHeight="1">
@@ -4658,25 +4658,25 @@
         <v>52</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="D34" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="F34" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>287</v>
       </c>
       <c r="G34" s="29">
         <v>1</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.5" customHeight="1">
@@ -4684,25 +4684,25 @@
         <v>53</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="D35" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="E35" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>292</v>
-      </c>
       <c r="F35" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" s="29">
         <v>4</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" customHeight="1">
@@ -4710,25 +4710,25 @@
         <v>54</v>
       </c>
       <c r="B36" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>294</v>
-      </c>
       <c r="E36" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G36" s="29">
         <v>1</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.5" customHeight="1">
@@ -4736,25 +4736,25 @@
         <v>55</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="29" t="s">
         <v>298</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>299</v>
       </c>
       <c r="G37" s="29">
         <v>3</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="31.5" customHeight="1">
@@ -4762,25 +4762,25 @@
         <v>56</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="G38" s="29">
         <v>4</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="31.5" customHeight="1">
@@ -4788,25 +4788,25 @@
         <v>57</v>
       </c>
       <c r="B39" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="D39" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="F39" s="29" t="s">
         <v>306</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>307</v>
       </c>
       <c r="G39" s="29">
         <v>1</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="31.5" customHeight="1">
@@ -4814,25 +4814,25 @@
         <v>58</v>
       </c>
       <c r="B40" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G40" s="29">
         <v>2</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="31.5" customHeight="1">
@@ -4840,25 +4840,25 @@
         <v>59</v>
       </c>
       <c r="B41" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="E41" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>317</v>
       </c>
       <c r="G41" s="29">
         <v>1</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.5" customHeight="1">
@@ -4866,25 +4866,25 @@
         <v>60</v>
       </c>
       <c r="B42" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="E42" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>322</v>
-      </c>
       <c r="F42" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" s="29">
         <v>4</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="31.5" customHeight="1">
@@ -4892,25 +4892,25 @@
         <v>61</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="E43" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>326</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>327</v>
       </c>
       <c r="G43" s="29">
         <v>2</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="31.5" customHeight="1">
@@ -4918,25 +4918,25 @@
         <v>62</v>
       </c>
       <c r="B44" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>330</v>
-      </c>
       <c r="F44" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G44" s="29">
         <v>2</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="31.5" customHeight="1">
@@ -4944,25 +4944,25 @@
         <v>63</v>
       </c>
       <c r="B45" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="E45" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>333</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>334</v>
       </c>
       <c r="G45" s="29">
         <v>1</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.5" customHeight="1">
@@ -4970,25 +4970,25 @@
         <v>64</v>
       </c>
       <c r="B46" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="E46" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>339</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>340</v>
       </c>
       <c r="G46" s="29">
         <v>1</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="31.5" customHeight="1">
@@ -4996,25 +4996,25 @@
         <v>65</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="D47" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="E47" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="F47" s="29" t="s">
         <v>344</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>345</v>
       </c>
       <c r="G47" s="29">
         <v>4</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="31.5" customHeight="1">
@@ -5022,25 +5022,25 @@
         <v>66</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F48" s="29" t="s">
         <v>347</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>348</v>
       </c>
       <c r="G48" s="29">
         <v>1</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="31.5" customHeight="1">
@@ -5048,25 +5048,25 @@
         <v>67</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="29" t="s">
+      <c r="E49" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E49" s="29" t="s">
+      <c r="F49" s="29" t="s">
         <v>351</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>352</v>
       </c>
       <c r="G49" s="29">
         <v>1</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" customHeight="1">
@@ -5074,25 +5074,25 @@
         <v>68</v>
       </c>
       <c r="B50" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="D50" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>356</v>
       </c>
       <c r="G50" s="29">
         <v>3</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="31.5" customHeight="1">
@@ -5100,25 +5100,25 @@
         <v>69</v>
       </c>
       <c r="B51" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>359</v>
       </c>
       <c r="G51" s="29">
         <v>1</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="31.5" customHeight="1">
@@ -5126,25 +5126,25 @@
         <v>70</v>
       </c>
       <c r="B52" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="D52" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="E52" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E52" s="29" t="s">
-        <v>363</v>
-      </c>
       <c r="F52" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G52" s="29">
         <v>3</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="31.5" customHeight="1">
@@ -5152,25 +5152,25 @@
         <v>71</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E53" s="29" t="s">
+      <c r="F53" s="29" t="s">
         <v>367</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>368</v>
       </c>
       <c r="G53" s="29">
         <v>3</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="31.5" customHeight="1">
@@ -5178,25 +5178,25 @@
         <v>72</v>
       </c>
       <c r="B54" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="E54" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="F54" s="29" t="s">
         <v>373</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>374</v>
       </c>
       <c r="G54" s="29">
         <v>1</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="31.5" customHeight="1">
@@ -5204,25 +5204,25 @@
         <v>73</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G55" s="29">
         <v>2</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="31.5" customHeight="1">
@@ -5230,25 +5230,25 @@
         <v>74</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="D56" s="29" t="s">
+      <c r="E56" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="F56" s="29" t="s">
         <v>378</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>379</v>
       </c>
       <c r="G56" s="29">
         <v>3</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" customHeight="1">
@@ -5256,25 +5256,25 @@
         <v>75</v>
       </c>
       <c r="B57" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="D57" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" s="29" t="s">
+      <c r="F57" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>384</v>
       </c>
       <c r="G57" s="29">
         <v>1</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="31.5" customHeight="1">
@@ -5282,25 +5282,25 @@
         <v>76</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="29" t="s">
+      <c r="E58" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>387</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>388</v>
       </c>
       <c r="G58" s="29">
         <v>4</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="31.5" customHeight="1">
@@ -5308,25 +5308,25 @@
         <v>77</v>
       </c>
       <c r="B59" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>390</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G59" s="29">
         <v>2</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="31.5" customHeight="1">
@@ -5334,25 +5334,25 @@
         <v>78</v>
       </c>
       <c r="B60" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="D60" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="29" t="s">
+      <c r="E60" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="29" t="s">
         <v>392</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>393</v>
       </c>
       <c r="G60" s="29">
         <v>2</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="31.5" customHeight="1">
@@ -5360,25 +5360,25 @@
         <v>79</v>
       </c>
       <c r="B61" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>395</v>
-      </c>
       <c r="D61" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G61" s="29">
         <v>1</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="31.5" customHeight="1">
@@ -5386,25 +5386,25 @@
         <v>80</v>
       </c>
       <c r="B62" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62" s="29" t="s">
+      <c r="F62" s="29" t="s">
         <v>398</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>399</v>
       </c>
       <c r="G62" s="29">
         <v>2</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="31.5" customHeight="1">
@@ -5412,25 +5412,25 @@
         <v>81</v>
       </c>
       <c r="B63" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>402</v>
-      </c>
       <c r="E63" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63" s="29">
         <v>3</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="31.5" customHeight="1">
@@ -5438,25 +5438,25 @@
         <v>82</v>
       </c>
       <c r="B64" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="D64" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="E64" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="29" t="s">
         <v>406</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>407</v>
       </c>
       <c r="G64" s="29">
         <v>1</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="31.5" customHeight="1">
@@ -5464,25 +5464,25 @@
         <v>83</v>
       </c>
       <c r="B65" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="E65" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="F65" s="29" t="s">
         <v>412</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>413</v>
       </c>
       <c r="G65" s="29">
         <v>2</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="31.5" customHeight="1">
@@ -5490,25 +5490,25 @@
         <v>84</v>
       </c>
       <c r="B66" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>416</v>
-      </c>
       <c r="F66" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G66" s="29">
         <v>4</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="31.5" customHeight="1">
@@ -5516,25 +5516,25 @@
         <v>85</v>
       </c>
       <c r="B67" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="E67" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="F67" s="29" t="s">
         <v>421</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>422</v>
       </c>
       <c r="G67" s="29">
         <v>2</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="31.5" customHeight="1">
@@ -5542,25 +5542,25 @@
         <v>86</v>
       </c>
       <c r="B68" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="29" t="s">
+      <c r="E68" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="F68" s="29" t="s">
         <v>424</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>425</v>
       </c>
       <c r="G68" s="29">
         <v>3</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="31.5" customHeight="1">
@@ -5568,25 +5568,25 @@
         <v>87</v>
       </c>
       <c r="B69" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E69" s="29" t="s">
+      <c r="F69" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>429</v>
       </c>
       <c r="G69" s="29">
         <v>1</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31.5" customHeight="1">
@@ -5594,25 +5594,25 @@
         <v>88</v>
       </c>
       <c r="B70" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="D70" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="E70" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>434</v>
-      </c>
       <c r="F70" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G70" s="29">
         <v>3</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="31.5" customHeight="1">
@@ -5620,25 +5620,25 @@
         <v>89</v>
       </c>
       <c r="B71" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D71" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="C71" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="D71" s="29" t="s">
+      <c r="E71" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="E71" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="F71" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G71" s="29">
         <v>1</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="31.5" customHeight="1">
@@ -5646,25 +5646,25 @@
         <v>90</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G72" s="29">
         <v>4</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="31.5" customHeight="1">
@@ -5672,25 +5672,25 @@
         <v>91</v>
       </c>
       <c r="B73" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="D73" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="29" t="s">
+      <c r="F73" s="29" t="s">
         <v>444</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>445</v>
       </c>
       <c r="G73" s="29">
         <v>4</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="31.5" customHeight="1">
@@ -5698,25 +5698,25 @@
         <v>92</v>
       </c>
       <c r="B74" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>448</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>449</v>
       </c>
       <c r="G74" s="29">
         <v>3</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="31.5" customHeight="1">
@@ -5724,25 +5724,25 @@
         <v>93</v>
       </c>
       <c r="B75" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E75" s="29" t="s">
+      <c r="F75" s="29" t="s">
         <v>452</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="G75" s="29">
         <v>2</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="31.5" customHeight="1">
@@ -5750,25 +5750,25 @@
         <v>94</v>
       </c>
       <c r="B76" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="C76" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="D76" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>457</v>
-      </c>
       <c r="F76" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G76" s="29">
         <v>1</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="31.5" customHeight="1">
@@ -5776,25 +5776,25 @@
         <v>95</v>
       </c>
       <c r="B77" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="E77" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="F77" s="29" t="s">
         <v>462</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>463</v>
       </c>
       <c r="G77" s="29">
         <v>1</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="31.5" customHeight="1">
@@ -5802,25 +5802,25 @@
         <v>96</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G78" s="29">
         <v>1</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="31.5" customHeight="1">
@@ -5828,25 +5828,25 @@
         <v>97</v>
       </c>
       <c r="B79" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="E79" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="F79" s="29" t="s">
         <v>470</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>471</v>
       </c>
       <c r="G79" s="29">
         <v>1</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="31.5" customHeight="1">
@@ -5854,25 +5854,25 @@
         <v>98</v>
       </c>
       <c r="B80" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="D80" s="29" t="s">
+      <c r="E80" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="F80" s="29" t="s">
         <v>475</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>476</v>
       </c>
       <c r="G80" s="29">
         <v>1</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="31.5" customHeight="1">
@@ -5880,25 +5880,25 @@
         <v>99</v>
       </c>
       <c r="B81" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" s="29" t="s">
+      <c r="F81" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>481</v>
       </c>
       <c r="G81" s="29">
         <v>1</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="31.5" customHeight="1">
@@ -5906,25 +5906,25 @@
         <v>100</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G82" s="29">
         <v>1</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="31.5" customHeight="1">
@@ -5932,25 +5932,25 @@
         <v>101</v>
       </c>
       <c r="B83" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="C83" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="29" t="s">
+      <c r="E83" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>486</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>487</v>
       </c>
       <c r="G83" s="29">
         <v>1</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="31.5" customHeight="1">
@@ -5958,25 +5958,25 @@
         <v>102</v>
       </c>
       <c r="B84" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="F84" s="29" t="s">
         <v>492</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>493</v>
       </c>
       <c r="G84" s="29">
         <v>2</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="31.5" customHeight="1">
@@ -5984,25 +5984,25 @@
         <v>103</v>
       </c>
       <c r="B85" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="D85" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="29" t="s">
         <v>496</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>497</v>
       </c>
       <c r="G85" s="29">
         <v>1</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="31.5" customHeight="1">
@@ -6010,25 +6010,25 @@
         <v>104</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G86" s="29">
         <v>4</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="31.5" customHeight="1">
@@ -6036,25 +6036,25 @@
         <v>105</v>
       </c>
       <c r="B87" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="E87" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="E87" s="29" t="s">
-        <v>504</v>
-      </c>
       <c r="F87" s="29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G87" s="29">
         <v>1</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="31.5" customHeight="1">
@@ -6062,25 +6062,25 @@
         <v>106</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G88" s="29">
         <v>2</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="31.5" customHeight="1">
@@ -6088,25 +6088,25 @@
         <v>107</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G89" s="29">
         <v>1</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="31.5" customHeight="1">
@@ -6114,25 +6114,25 @@
         <v>108</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G90" s="29">
         <v>2</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="31.5" customHeight="1">
@@ -6140,25 +6140,25 @@
         <v>109</v>
       </c>
       <c r="B91" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="29" t="s">
+      <c r="E91" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>513</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>514</v>
       </c>
       <c r="G91" s="29">
         <v>2</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="31.5" customHeight="1">
@@ -6166,25 +6166,25 @@
         <v>110</v>
       </c>
       <c r="B92" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>516</v>
       </c>
-      <c r="C92" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="E92" s="29" t="s">
+      <c r="F92" s="29" t="s">
         <v>517</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>518</v>
       </c>
       <c r="G92" s="29">
         <v>2</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="31.5" customHeight="1">
@@ -6192,25 +6192,25 @@
         <v>111</v>
       </c>
       <c r="B93" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C93" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="D93" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F93" s="29" t="s">
         <v>521</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>522</v>
       </c>
       <c r="G93" s="29">
         <v>1</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="31.5" customHeight="1">
@@ -6218,25 +6218,25 @@
         <v>112</v>
       </c>
       <c r="B94" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="C94" s="29" t="s">
-        <v>525</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G94" s="29">
         <v>1</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="31.5" customHeight="1">
@@ -6244,25 +6244,25 @@
         <v>113</v>
       </c>
       <c r="B95" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="D95" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>529</v>
-      </c>
       <c r="F95" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G95" s="29">
         <v>3</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="31.5" customHeight="1">
@@ -6270,25 +6270,25 @@
         <v>114</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G96" s="29">
         <v>2</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="31.5" customHeight="1">
@@ -6296,25 +6296,25 @@
         <v>115</v>
       </c>
       <c r="B97" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="C97" s="29" t="s">
-        <v>534</v>
-      </c>
       <c r="D97" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G97" s="29">
         <v>1</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="31.5" customHeight="1">
@@ -6322,25 +6322,25 @@
         <v>116</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C98" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>194</v>
-      </c>
       <c r="F98" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G98" s="29">
         <v>2</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="31.5" customHeight="1">
@@ -6348,25 +6348,25 @@
         <v>117</v>
       </c>
       <c r="B99" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="C99" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="C99" s="29" t="s">
-        <v>539</v>
-      </c>
       <c r="D99" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G99" s="29">
         <v>1</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="31.5" customHeight="1">
@@ -6374,25 +6374,25 @@
         <v>118</v>
       </c>
       <c r="B100" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="C100" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="C100" s="29" t="s">
-        <v>542</v>
-      </c>
       <c r="D100" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G100" s="29">
         <v>2</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="31.5" customHeight="1">
@@ -6400,25 +6400,25 @@
         <v>119</v>
       </c>
       <c r="B101" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F101" s="29" t="s">
         <v>544</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>545</v>
       </c>
       <c r="G101" s="29">
         <v>4</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="31.5" customHeight="1">
@@ -6426,25 +6426,25 @@
         <v>120</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G102" s="29">
         <v>2</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
